--- a/Lessons/Lesson05/Lesson05_InClass.xlsx
+++ b/Lessons/Lesson05/Lesson05_InClass.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -279,7 +279,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -405,7 +405,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C2C0BC-2D89-4908-B0CD-E31694CAE2C9}">
   <dimension ref="A2:N77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B41" s="16">
         <f ca="1">TODAY()</f>
-        <v>43962</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.5">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B42" s="17">
         <f ca="1">NOW()</f>
-        <v>43962.644672800925</v>
+        <v>43973.708484606483</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="B61" s="16">
         <f ca="1">TODAY()</f>
-        <v>43962</v>
+        <v>43973</v>
       </c>
       <c r="E61">
         <f ca="1">YEARFRAC(A61,B61,1)</f>
-        <v>13.929549187807995</v>
+        <v>13.959664172294215</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C72">
         <f ca="1">RAND()</f>
-        <v>0.82664186300829978</v>
+        <v>0.73255840816747653</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.5">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C73">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.5">

--- a/Lessons/Lesson05/Lesson05_InClass.xlsx
+++ b/Lessons/Lesson05/Lesson05_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afb04e5a841adf33/Documents/GitHub/IntroToExcel/Lessons/Lesson05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1023" documentId="8_{6E0834F5-0716-450D-B571-FFED9EF196C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C325103A-24C1-4B7E-9D2C-19DCD1D61FA0}"/>
+  <xr:revisionPtr revIDLastSave="1025" documentId="8_{6E0834F5-0716-450D-B571-FFED9EF196C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A6471A1-E8E3-48FA-860F-7809437BA499}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{049B9E44-5316-44AE-9DFA-B00E57B7517A}"/>
   </bookViews>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C2C0BC-2D89-4908-B0CD-E31694CAE2C9}">
   <dimension ref="A2:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B41" s="16">
         <f ca="1">TODAY()</f>
-        <v>43973</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.5">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B42" s="17">
         <f ca="1">NOW()</f>
-        <v>43973.708484606483</v>
+        <v>43979.480682175927</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
@@ -1476,7 +1476,7 @@
       <c r="E52">
         <v>6</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="18">
         <f>EDATE(B52,E52)</f>
         <v>44146</v>
       </c>
@@ -1541,11 +1541,11 @@
       </c>
       <c r="B61" s="16">
         <f ca="1">TODAY()</f>
-        <v>43973</v>
+        <v>43979</v>
       </c>
       <c r="E61">
         <f ca="1">YEARFRAC(A61,B61,1)</f>
-        <v>13.959664172294215</v>
+        <v>13.976090527468516</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C72">
         <f ca="1">RAND()</f>
-        <v>0.73255840816747653</v>
+        <v>0.21498161653396708</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.5">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C73">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.5">
